--- a/DDT/ExcelSheet.xlsx
+++ b/DDT/ExcelSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hemag.gade/eclipse-workspace/Project1_Amazon/DDT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeepparkhande/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1023D66-B2AF-B74B-BDF8-EBD9DD530C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532175F1-92A2-B143-94B8-F49B0AAB1B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="680" windowWidth="24420" windowHeight="16400" xr2:uid="{D4957AD5-2FD3-8048-8F04-3B695387ED7A}"/>
+    <workbookView xWindow="4380" yWindow="680" windowWidth="24420" windowHeight="16280" xr2:uid="{D4957AD5-2FD3-8048-8F04-3B695387ED7A}"/>
   </bookViews>
   <sheets>
     <sheet name="detailslogin" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>sandeep.parkhande@gmail.com</t>
   </si>
   <si>
-    <t>Amazon@1503</t>
+    <t>Amazon@1525</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
